--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.686499</v>
+        <v>3.702073333333333</v>
       </c>
       <c r="H2">
-        <v>14.059497</v>
+        <v>11.10622</v>
       </c>
       <c r="I2">
-        <v>0.05495643536242917</v>
+        <v>0.031699224716142</v>
       </c>
       <c r="J2">
-        <v>0.05495643536242918</v>
+        <v>0.031699224716142</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>33.42823600000001</v>
+        <v>0.05651999999999999</v>
       </c>
       <c r="N2">
-        <v>100.284708</v>
+        <v>0.16956</v>
       </c>
       <c r="O2">
-        <v>0.780497154124833</v>
+        <v>0.01567922357698054</v>
       </c>
       <c r="P2">
-        <v>0.780497154124833</v>
+        <v>0.01567922357698054</v>
       </c>
       <c r="Q2">
-        <v>156.661394585764</v>
+        <v>0.2092411848</v>
       </c>
       <c r="R2">
-        <v>1409.952551271876</v>
+        <v>1.8831706632</v>
       </c>
       <c r="S2">
-        <v>0.04289334140122131</v>
+        <v>0.000497019231541338</v>
       </c>
       <c r="T2">
-        <v>0.04289334140122131</v>
+        <v>0.0004970192315413379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.686499</v>
+        <v>3.702073333333333</v>
       </c>
       <c r="H3">
-        <v>14.059497</v>
+        <v>11.10622</v>
       </c>
       <c r="I3">
-        <v>0.05495643536242917</v>
+        <v>0.031699224716142</v>
       </c>
       <c r="J3">
-        <v>0.05495643536242918</v>
+        <v>0.031699224716142</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.794229</v>
       </c>
       <c r="O3">
-        <v>0.0373125889813903</v>
+        <v>0.4433226490342289</v>
       </c>
       <c r="P3">
-        <v>0.0373125889813903</v>
+        <v>0.4433226490342288</v>
       </c>
       <c r="Q3">
-        <v>7.489383138090333</v>
+        <v>5.916195778264443</v>
       </c>
       <c r="R3">
-        <v>67.40444824281299</v>
+        <v>53.24576200437999</v>
       </c>
       <c r="S3">
-        <v>0.002050566884560663</v>
+        <v>0.01405298427349137</v>
       </c>
       <c r="T3">
-        <v>0.002050566884560663</v>
+        <v>0.01405298427349137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.686499</v>
+        <v>3.702073333333333</v>
       </c>
       <c r="H4">
-        <v>14.059497</v>
+        <v>11.10622</v>
       </c>
       <c r="I4">
-        <v>0.05495643536242917</v>
+        <v>0.031699224716142</v>
       </c>
       <c r="J4">
-        <v>0.05495643536242918</v>
+        <v>0.031699224716142</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.803102</v>
+        <v>1.950174</v>
       </c>
       <c r="N4">
-        <v>23.409306</v>
+        <v>5.850522</v>
       </c>
       <c r="O4">
-        <v>0.1821902568937766</v>
+        <v>0.5409981273887907</v>
       </c>
       <c r="P4">
-        <v>0.1821902568937767</v>
+        <v>0.5409981273887906</v>
       </c>
       <c r="Q4">
-        <v>36.569229719898</v>
+        <v>7.219687160759999</v>
       </c>
       <c r="R4">
-        <v>329.123067479082</v>
+        <v>64.97718444683998</v>
       </c>
       <c r="S4">
-        <v>0.0100125270766472</v>
+        <v>0.01714922121110929</v>
       </c>
       <c r="T4">
-        <v>0.0100125270766472</v>
+        <v>0.01714922121110929</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>139.289464</v>
       </c>
       <c r="I5">
-        <v>0.5444613292341401</v>
+        <v>0.3975581268808804</v>
       </c>
       <c r="J5">
-        <v>0.5444613292341403</v>
+        <v>0.3975581268808804</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>33.42823600000001</v>
+        <v>0.05651999999999999</v>
       </c>
       <c r="N5">
-        <v>100.284708</v>
+        <v>0.16956</v>
       </c>
       <c r="O5">
-        <v>0.780497154124833</v>
+        <v>0.01567922357698054</v>
       </c>
       <c r="P5">
-        <v>0.780497154124833</v>
+        <v>0.01567922357698054</v>
       </c>
       <c r="Q5">
-        <v>1552.067024968502</v>
+        <v>2.62421350176</v>
       </c>
       <c r="R5">
-        <v>13968.60322471651</v>
+        <v>23.61792151584</v>
       </c>
       <c r="S5">
-        <v>0.4249505179982701</v>
+        <v>0.006233402756210923</v>
       </c>
       <c r="T5">
-        <v>0.4249505179982702</v>
+        <v>0.006233402756210921</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>139.289464</v>
       </c>
       <c r="I6">
-        <v>0.5444613292341401</v>
+        <v>0.3975581268808804</v>
       </c>
       <c r="J6">
-        <v>0.5444613292341403</v>
+        <v>0.3975581268808804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.794229</v>
       </c>
       <c r="O6">
-        <v>0.0373125889813903</v>
+        <v>0.4433226490342289</v>
       </c>
       <c r="P6">
-        <v>0.0373125889813903</v>
+        <v>0.4433226490342288</v>
       </c>
       <c r="Q6">
         <v>74.19839863369511</v>
@@ -818,10 +818,10 @@
         <v>667.7855877032559</v>
       </c>
       <c r="S6">
-        <v>0.02031526179397489</v>
+        <v>0.176246521953918</v>
       </c>
       <c r="T6">
-        <v>0.0203152617939749</v>
+        <v>0.176246521953918</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>139.289464</v>
       </c>
       <c r="I7">
-        <v>0.5444613292341401</v>
+        <v>0.3975581268808804</v>
       </c>
       <c r="J7">
-        <v>0.5444613292341403</v>
+        <v>0.3975581268808804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.803102</v>
+        <v>1.950174</v>
       </c>
       <c r="N7">
-        <v>23.409306</v>
+        <v>5.850522</v>
       </c>
       <c r="O7">
-        <v>0.1821902568937766</v>
+        <v>0.5409981273887907</v>
       </c>
       <c r="P7">
-        <v>0.1821902568937767</v>
+        <v>0.5409981273887906</v>
       </c>
       <c r="Q7">
-        <v>362.296631705776</v>
+        <v>90.54623038891199</v>
       </c>
       <c r="R7">
-        <v>3260.669685351984</v>
+        <v>814.916073500208</v>
       </c>
       <c r="S7">
-        <v>0.09919554944189508</v>
+        <v>0.2150782021707516</v>
       </c>
       <c r="T7">
-        <v>0.09919554944189513</v>
+        <v>0.2150782021707515</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.16029866666667</v>
+        <v>66.65560933333335</v>
       </c>
       <c r="H8">
-        <v>102.480896</v>
+        <v>199.966828</v>
       </c>
       <c r="I8">
-        <v>0.4005822354034306</v>
+        <v>0.5707426484029776</v>
       </c>
       <c r="J8">
-        <v>0.4005822354034306</v>
+        <v>0.5707426484029775</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>33.42823600000001</v>
+        <v>0.05651999999999999</v>
       </c>
       <c r="N8">
-        <v>100.284708</v>
+        <v>0.16956</v>
       </c>
       <c r="O8">
-        <v>0.780497154124833</v>
+        <v>0.01567922357698054</v>
       </c>
       <c r="P8">
-        <v>0.780497154124833</v>
+        <v>0.01567922357698054</v>
       </c>
       <c r="Q8">
-        <v>1141.918525659819</v>
+        <v>3.76737503952</v>
       </c>
       <c r="R8">
-        <v>10277.26673093837</v>
+        <v>33.90637535568</v>
       </c>
       <c r="S8">
-        <v>0.3126532947253415</v>
+        <v>0.008948801589228284</v>
       </c>
       <c r="T8">
-        <v>0.3126532947253415</v>
+        <v>0.008948801589228278</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.16029866666667</v>
+        <v>66.65560933333335</v>
       </c>
       <c r="H9">
-        <v>102.480896</v>
+        <v>199.966828</v>
       </c>
       <c r="I9">
-        <v>0.4005822354034306</v>
+        <v>0.5707426484029776</v>
       </c>
       <c r="J9">
-        <v>0.4005822354034306</v>
+        <v>0.5707426484029775</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.794229</v>
       </c>
       <c r="O9">
-        <v>0.0373125889813903</v>
+        <v>0.4433226490342289</v>
       </c>
       <c r="P9">
-        <v>0.0373125889813903</v>
+        <v>0.4433226490342288</v>
       </c>
       <c r="Q9">
-        <v>54.59076483879822</v>
+        <v>106.5207517595125</v>
       </c>
       <c r="R9">
-        <v>491.316883549184</v>
+        <v>958.6867658356121</v>
       </c>
       <c r="S9">
-        <v>0.01494676030285474</v>
+        <v>0.2530231428068195</v>
       </c>
       <c r="T9">
-        <v>0.01494676030285474</v>
+        <v>0.2530231428068194</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.16029866666667</v>
+        <v>66.65560933333335</v>
       </c>
       <c r="H10">
-        <v>102.480896</v>
+        <v>199.966828</v>
       </c>
       <c r="I10">
-        <v>0.4005822354034306</v>
+        <v>0.5707426484029776</v>
       </c>
       <c r="J10">
-        <v>0.4005822354034306</v>
+        <v>0.5707426484029775</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.803102</v>
+        <v>1.950174</v>
       </c>
       <c r="N10">
-        <v>23.409306</v>
+        <v>5.850522</v>
       </c>
       <c r="O10">
-        <v>0.1821902568937766</v>
+        <v>0.5409981273887907</v>
       </c>
       <c r="P10">
-        <v>0.1821902568937767</v>
+        <v>0.5409981273887906</v>
       </c>
       <c r="Q10">
-        <v>266.556294846464</v>
+        <v>129.990036276024</v>
       </c>
       <c r="R10">
-        <v>2399.006653618176</v>
+        <v>1169.910326484216</v>
       </c>
       <c r="S10">
-        <v>0.07298218037523434</v>
+        <v>0.3087707040069299</v>
       </c>
       <c r="T10">
-        <v>0.07298218037523434</v>
+        <v>0.3087707040069297</v>
       </c>
     </row>
   </sheetData>
